--- a/MAIN/2021_11_21 - 3czujniki ludzik leonardo/Time_between_sensors/blend/B115200_200_14_41_30.xlsx
+++ b/MAIN/2021_11_21 - 3czujniki ludzik leonardo/Time_between_sensors/blend/B115200_200_14_41_30.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcin\Desktop\Motion_capture\MAIN\2021_11_21 - 3czujniki ludzik leonardo\Time_between_sensors\blend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Motion\Motion-capture\MAIN\2021_11_21 - 3czujniki ludzik leonardo\Time_between_sensors\blend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{62B361F1-2800-47C4-B40B-03E0C0362D75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD91214-51FA-43E3-B79E-48B4E796AF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B115200_200_14_41_30" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P205" sqref="P205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19002,7 +19014,7 @@
         <v>5660</v>
       </c>
       <c r="Z195">
-        <f t="shared" ref="Z195:Z202" si="25">SUM(V195:Y195)</f>
+        <f t="shared" ref="Z195:Z201" si="25">SUM(V195:Y195)</f>
         <v>25644</v>
       </c>
       <c r="AA195">
@@ -19634,6 +19646,12 @@
       </c>
       <c r="AB203" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z204">
+        <f>1/Z203</f>
+        <v>37.65803193099844</v>
       </c>
     </row>
   </sheetData>

--- a/MAIN/2021_11_21 - 3czujniki ludzik leonardo/Time_between_sensors/blend/B115200_200_14_41_30.xlsx
+++ b/MAIN/2021_11_21 - 3czujniki ludzik leonardo/Time_between_sensors/blend/B115200_200_14_41_30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Motion\Motion-capture\MAIN\2021_11_21 - 3czujniki ludzik leonardo\Time_between_sensors\blend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD91214-51FA-43E3-B79E-48B4E796AF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563161C-DFF2-437C-B2D0-921BA90AB44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P205" sqref="P205"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V203" sqref="V1:AB203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
